--- a/Components_V6.xlsx
+++ b/Components_V6.xlsx
@@ -2097,7 +2097,8 @@
         <v>42</v>
       </c>
       <c r="E8" s="5">
-        <v>60000.0</v>
+        <f>60000+(60000*0.0765)+(60000*0.0204)+(60000*0.006)</f>
+        <v>66174</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>43</v>
@@ -2163,7 +2164,8 @@
         <v>42</v>
       </c>
       <c r="E10" s="5">
-        <v>45000.0</v>
+        <f>45000+(45000*0.0765)+(45000*0.0204)+(45000*0.006)</f>
+        <v>49630.5</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>51</v>
@@ -2196,7 +2198,8 @@
         <v>42</v>
       </c>
       <c r="E11" s="5">
-        <v>20.0</v>
+        <f>20+(20*0.0765)+(20*0.0204)+(20*0.006)</f>
+        <v>22.058</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>55</v>
